--- a/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9F96E5-4694-4003-BCCB-15623F962541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E2941B3-D491-46D1-B9AB-EBC35BCEC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A50FE06-47E5-47F4-AD3D-6A00F60C6017}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BB1AD4B-8960-4778-895E-0E7B3F03964B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="262">
-  <si>
-    <t>Población según el número de piezas de fruta que consume al día en 2023 (Tasa respuesta: 99,86%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+  <si>
+    <t>Población según el consumo de fruta en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más veces por semana</t>
@@ -104,514 +104,523 @@
     <t>23,0%</t>
   </si>
   <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>Diariamente aunque menos de tres veces al día</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>Tres o más al día</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>Diariamente aunque menos de tres veces al día</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>Tres o más al día</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>23,07%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -620,19 +629,19 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>9,04%</t>
@@ -641,181 +650,178 @@
     <t>2,56%</t>
   </si>
   <si>
+    <t>27,98%</t>
+  </si>
+  <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>15,39%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
   </si>
   <si>
     <t>53,41%</t>
   </si>
   <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>18,48%</t>
+    <t>18,55%</t>
   </si>
   <si>
     <t>20,86%</t>
@@ -1233,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E274687-6A4A-437F-A4B1-4C9697EB0876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C84ED2-5C0E-431A-B0BC-B530758B141C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,10 +1704,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,10 +1722,10 @@
         <v>223361</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>71</v>
@@ -1785,10 +1791,10 @@
         <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -1797,13 +1803,13 @@
         <v>140257</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,7 +1964,7 @@
         <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1979,13 @@
         <v>315612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>498</v>
@@ -1988,13 +1994,13 @@
         <v>350981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>805</v>
@@ -2003,13 +2009,13 @@
         <v>666593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,13 +2030,13 @@
         <v>98570</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2039,13 +2045,13 @@
         <v>105666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -2054,13 +2060,13 @@
         <v>204235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,7 +2122,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2128,13 +2134,13 @@
         <v>49509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2143,13 +2149,13 @@
         <v>40436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -2158,13 +2164,13 @@
         <v>89945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2185,13 @@
         <v>122828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -2194,13 +2200,13 @@
         <v>108847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>303</v>
@@ -2209,13 +2215,13 @@
         <v>231675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2236,13 @@
         <v>406832</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>662</v>
@@ -2245,13 +2251,13 @@
         <v>431399</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1016</v>
@@ -2260,13 +2266,13 @@
         <v>838231</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2287,13 @@
         <v>144820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>234</v>
@@ -2296,13 +2302,13 @@
         <v>165588</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -2311,13 +2317,13 @@
         <v>310408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,7 +2379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2385,13 +2391,13 @@
         <v>29450</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2400,13 +2406,13 @@
         <v>29208</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -2415,13 +2421,13 @@
         <v>58658</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2442,13 @@
         <v>95855</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -2451,13 +2457,13 @@
         <v>75245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
@@ -2466,13 +2472,13 @@
         <v>171100</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2493,13 @@
         <v>357616</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -2502,13 +2508,13 @@
         <v>369421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>1007</v>
@@ -2517,13 +2523,13 @@
         <v>727037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2544,13 @@
         <v>116159</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>211</v>
@@ -2553,13 +2559,13 @@
         <v>122646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>334</v>
@@ -2568,13 +2574,13 @@
         <v>238805</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,7 +2636,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2642,13 +2648,13 @@
         <v>22491</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -2657,13 +2663,13 @@
         <v>133231</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -2672,13 +2678,13 @@
         <v>155721</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2699,13 @@
         <v>92004</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>197</v>
@@ -2708,13 +2714,13 @@
         <v>106252</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>328</v>
@@ -2723,13 +2729,13 @@
         <v>198256</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,16 +2747,16 @@
         <v>618</v>
       </c>
       <c r="D31" s="7">
-        <v>413868</v>
+        <v>413867</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>1019</v>
@@ -2759,13 +2765,13 @@
         <v>547132</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>1637</v>
@@ -2774,13 +2780,13 @@
         <v>961000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,16 +2798,16 @@
         <v>249</v>
       </c>
       <c r="D32" s="7">
-        <v>169393</v>
+        <v>169392</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>447</v>
@@ -2810,13 +2816,13 @@
         <v>237804</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>696</v>
@@ -2825,13 +2831,13 @@
         <v>407197</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2849,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2899,13 +2905,13 @@
         <v>203091</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="H34" s="7">
         <v>246</v>
@@ -2914,13 +2920,13 @@
         <v>302285</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>420</v>
@@ -2929,7 +2935,7 @@
         <v>505376</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>235</v>
@@ -2953,10 +2959,10 @@
         <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>788</v>
@@ -2965,13 +2971,13 @@
         <v>560657</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>1373</v>
@@ -2980,13 +2986,13 @@
         <v>1162419</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3007,13 @@
         <v>1924589</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>3173</v>
@@ -3016,13 +3022,13 @@
         <v>2174604</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>5106</v>
@@ -3031,13 +3037,13 @@
         <v>4099194</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3058,13 @@
         <v>654549</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>1150</v>
@@ -3067,13 +3073,13 @@
         <v>766671</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>1832</v>
@@ -3082,13 +3088,13 @@
         <v>1421220</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3150,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E2941B3-D491-46D1-B9AB-EBC35BCEC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2138F302-72AD-4619-89C4-373BE39362CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BB1AD4B-8960-4778-895E-0E7B3F03964B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C2854EAA-6A91-4683-9734-07EDBAE291D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="304">
   <si>
     <t>Población según el consumo de fruta en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -65,766 +65,886 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de tres veces por semana</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>No diariamente, pero tres o más veces por semana</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>Diariamente aunque menos de tres veces al día</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>Tres o más al día</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>No diariamente, pero tres o más veces por semana</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>Diariamente aunque menos de tres veces al día</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>Tres o más al día</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,8 +1359,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C84ED2-5C0E-431A-B0BC-B530758B141C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFE40F-E030-4AB4-A007-D78903780D42}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1360,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>24917</v>
+        <v>25705</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1375,7 +1495,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>30573</v>
+        <v>30451</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1390,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>55489</v>
+        <v>56156</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1411,7 +1531,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>86848</v>
+        <v>99113</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1426,7 +1546,7 @@
         <v>49</v>
       </c>
       <c r="I5" s="7">
-        <v>81957</v>
+        <v>74992</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1441,7 +1561,7 @@
         <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>168805</v>
+        <v>174105</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1462,7 +1582,7 @@
         <v>93</v>
       </c>
       <c r="D6" s="7">
-        <v>207300</v>
+        <v>213664</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1477,7 +1597,7 @@
         <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>180723</v>
+        <v>153981</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1492,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="N6" s="7">
-        <v>388023</v>
+        <v>367645</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1513,7 +1633,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>58614</v>
+        <v>61504</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1528,7 +1648,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>61704</v>
+        <v>53777</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1543,7 +1663,7 @@
         <v>58</v>
       </c>
       <c r="N7" s="7">
-        <v>120319</v>
+        <v>115281</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1564,7 +1684,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1579,7 +1699,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1594,7 +1714,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1617,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>44473</v>
+        <v>45434</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1632,7 +1752,7 @@
         <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>36941</v>
+        <v>35069</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1647,7 +1767,7 @@
         <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>81414</v>
+        <v>80504</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1668,7 +1788,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>93568</v>
+        <v>96111</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1683,7 +1803,7 @@
         <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>93424</v>
+        <v>89315</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1698,16 +1818,16 @@
         <v>152</v>
       </c>
       <c r="N10" s="7">
-        <v>186992</v>
+        <v>185426</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,46 +1839,46 @@
         <v>163</v>
       </c>
       <c r="D11" s="7">
-        <v>223361</v>
+        <v>217603</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
       </c>
       <c r="I11" s="7">
-        <v>294949</v>
+        <v>321451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
       </c>
       <c r="N11" s="7">
-        <v>518310</v>
+        <v>539053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,46 +1890,46 @@
         <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>66994</v>
+        <v>64399</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>73263</v>
+        <v>65669</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>140257</v>
+        <v>130068</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,7 +1941,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1836,7 +1956,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1851,7 +1971,7 @@
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1865,7 +1985,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1874,46 +1994,46 @@
         <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>32251</v>
+        <v>31551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>31897</v>
+        <v>30167</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>64148</v>
+        <v>61718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,46 +2045,46 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>110660</v>
+        <v>110687</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>94933</v>
+        <v>91494</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>205592</v>
+        <v>202181</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,46 +2096,46 @@
         <v>307</v>
       </c>
       <c r="D16" s="7">
-        <v>315612</v>
+        <v>299152</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>498</v>
       </c>
       <c r="I16" s="7">
-        <v>350981</v>
+        <v>322469</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>805</v>
       </c>
       <c r="N16" s="7">
-        <v>666593</v>
+        <v>621620</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,46 +2147,46 @@
         <v>97</v>
       </c>
       <c r="D17" s="7">
-        <v>98570</v>
+        <v>94785</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
       </c>
       <c r="I17" s="7">
-        <v>105666</v>
+        <v>98338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
       </c>
       <c r="N17" s="7">
-        <v>204235</v>
+        <v>193123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2198,7 @@
         <v>545</v>
       </c>
       <c r="D18" s="7">
-        <v>557092</v>
+        <v>536175</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2093,7 +2213,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2108,7 +2228,7 @@
         <v>1391</v>
       </c>
       <c r="N18" s="7">
-        <v>1140568</v>
+        <v>1078642</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2122,7 +2242,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,46 +2251,46 @@
         <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>49509</v>
+        <v>52008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>40436</v>
+        <v>38005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
       </c>
       <c r="N19" s="7">
-        <v>89945</v>
+        <v>90013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,46 +2302,46 @@
         <v>124</v>
       </c>
       <c r="D20" s="7">
-        <v>122828</v>
+        <v>122068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
       </c>
       <c r="I20" s="7">
-        <v>108847</v>
+        <v>104062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>303</v>
       </c>
       <c r="N20" s="7">
-        <v>231675</v>
+        <v>226130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,46 +2353,46 @@
         <v>354</v>
       </c>
       <c r="D21" s="7">
-        <v>406832</v>
+        <v>577633</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>662</v>
       </c>
       <c r="I21" s="7">
-        <v>431399</v>
+        <v>394410</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>1016</v>
       </c>
       <c r="N21" s="7">
-        <v>838231</v>
+        <v>972043</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,46 +2404,46 @@
         <v>142</v>
       </c>
       <c r="D22" s="7">
-        <v>144820</v>
+        <v>136077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>234</v>
       </c>
       <c r="I22" s="7">
-        <v>165588</v>
+        <v>175476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
       </c>
       <c r="N22" s="7">
-        <v>310408</v>
+        <v>311553</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2455,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2350,7 +2470,7 @@
         <v>1139</v>
       </c>
       <c r="I23" s="7">
-        <v>746270</v>
+        <v>711952</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2365,7 +2485,7 @@
         <v>1804</v>
       </c>
       <c r="N23" s="7">
-        <v>1470260</v>
+        <v>1599738</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2379,7 +2499,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2388,46 +2508,46 @@
         <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>29450</v>
+        <v>28118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>29208</v>
+        <v>26968</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
       </c>
       <c r="N24" s="7">
-        <v>58658</v>
+        <v>55086</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,46 +2559,46 @@
         <v>109</v>
       </c>
       <c r="D25" s="7">
-        <v>95855</v>
+        <v>92729</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
       </c>
       <c r="I25" s="7">
-        <v>75245</v>
+        <v>71559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
       </c>
       <c r="N25" s="7">
-        <v>171100</v>
+        <v>164288</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,46 +2610,46 @@
         <v>398</v>
       </c>
       <c r="D26" s="7">
-        <v>357616</v>
+        <v>331328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
       </c>
       <c r="I26" s="7">
-        <v>369421</v>
+        <v>336161</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>1007</v>
       </c>
       <c r="N26" s="7">
-        <v>727037</v>
+        <v>667490</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,46 +2661,46 @@
         <v>123</v>
       </c>
       <c r="D27" s="7">
-        <v>116159</v>
+        <v>108029</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>211</v>
       </c>
       <c r="I27" s="7">
-        <v>122646</v>
+        <v>112713</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>334</v>
       </c>
       <c r="N27" s="7">
-        <v>238805</v>
+        <v>220742</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2712,7 @@
         <v>662</v>
       </c>
       <c r="D28" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2607,7 +2727,7 @@
         <v>1001</v>
       </c>
       <c r="I28" s="7">
-        <v>596520</v>
+        <v>547402</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2622,7 +2742,7 @@
         <v>1663</v>
       </c>
       <c r="N28" s="7">
-        <v>1195600</v>
+        <v>1107606</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2636,55 +2756,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>22491</v>
+        <v>16817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I29" s="7">
-        <v>133231</v>
+        <v>214996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N29" s="7">
-        <v>155721</v>
+        <v>231814</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,49 +2813,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7">
-        <v>92004</v>
+        <v>53143</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="I30" s="7">
-        <v>106252</v>
+        <v>42150</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
-        <v>328</v>
+        <v>166</v>
       </c>
       <c r="N30" s="7">
-        <v>198256</v>
+        <v>95293</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,49 +2864,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>618</v>
+        <v>323</v>
       </c>
       <c r="D31" s="7">
-        <v>413867</v>
+        <v>205314</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
-        <v>1019</v>
+        <v>462</v>
       </c>
       <c r="I31" s="7">
-        <v>547132</v>
+        <v>226697</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
-        <v>1637</v>
+        <v>785</v>
       </c>
       <c r="N31" s="7">
-        <v>961000</v>
+        <v>432011</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,49 +2915,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="D32" s="7">
-        <v>169392</v>
+        <v>92891</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
-        <v>447</v>
+        <v>253</v>
       </c>
       <c r="I32" s="7">
-        <v>237804</v>
+        <v>122864</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
-        <v>696</v>
+        <v>398</v>
       </c>
       <c r="N32" s="7">
-        <v>407197</v>
+        <v>215755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,10 +2966,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2861,10 +2981,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1704</v>
+        <v>824</v>
       </c>
       <c r="I33" s="7">
-        <v>1024419</v>
+        <v>606707</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2876,10 +2996,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N33" s="7">
-        <v>1722174</v>
+        <v>974873</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2893,55 +3013,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="D34" s="7">
-        <v>203091</v>
+        <v>4738</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="I34" s="7">
-        <v>302285</v>
+        <v>10351</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
-        <v>420</v>
+        <v>26</v>
       </c>
       <c r="N34" s="7">
-        <v>505376</v>
+        <v>15089</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,49 +3070,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>585</v>
+        <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>601762</v>
+        <v>34718</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="H35" s="7">
-        <v>788</v>
+        <v>110</v>
       </c>
       <c r="I35" s="7">
-        <v>560657</v>
+        <v>56993</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
-        <v>1373</v>
+        <v>162</v>
       </c>
       <c r="N35" s="7">
-        <v>1162419</v>
+        <v>91711</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,49 +3121,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>1933</v>
+        <v>295</v>
       </c>
       <c r="D36" s="7">
-        <v>1924589</v>
+        <v>177150</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
-        <v>3173</v>
+        <v>557</v>
       </c>
       <c r="I36" s="7">
-        <v>2174604</v>
+        <v>265795</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
-        <v>5106</v>
+        <v>852</v>
       </c>
       <c r="N36" s="7">
-        <v>4099194</v>
+        <v>442945</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,49 +3172,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>682</v>
+        <v>104</v>
       </c>
       <c r="D37" s="7">
-        <v>654549</v>
+        <v>66153</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
-        <v>1150</v>
+        <v>194</v>
       </c>
       <c r="I37" s="7">
-        <v>766671</v>
+        <v>92300</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
-        <v>1832</v>
+        <v>298</v>
       </c>
       <c r="N37" s="7">
-        <v>1421220</v>
+        <v>158454</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,63 +3223,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>880</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425439</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708198</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>174</v>
+      </c>
+      <c r="D39" s="7">
+        <v>204371</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="7">
+        <v>246</v>
+      </c>
+      <c r="I39" s="7">
+        <v>386008</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="7">
+        <v>420</v>
+      </c>
+      <c r="N39" s="7">
+        <v>590379</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>585</v>
+      </c>
+      <c r="D40" s="7">
+        <v>608570</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="7">
+        <v>788</v>
+      </c>
+      <c r="I40" s="7">
+        <v>530565</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1373</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1139135</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1933</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2021844</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="7">
+        <v>3173</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2020963</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M41" s="7">
+        <v>5106</v>
+      </c>
+      <c r="N41" s="7">
+        <v>4042807</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>682</v>
+      </c>
+      <c r="D42" s="7">
+        <v>623839</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1150</v>
+      </c>
+      <c r="I42" s="7">
+        <v>721136</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1832</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1344975</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3374</v>
       </c>
-      <c r="D38" s="7">
-        <v>3383991</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3458624</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5357</v>
       </c>
-      <c r="I38" s="7">
-        <v>3804218</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3658672</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8731</v>
       </c>
-      <c r="N38" s="7">
-        <v>7188210</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>263</v>
+      <c r="N43" s="7">
+        <v>7117296</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el consumo de fruta en 2023</t>
+          <t>Población según la frecuencia de consumo de fruta o zumos naturales en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
